--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Services &amp; Networking</t>
   </si>
@@ -280,13 +280,16 @@
   </si>
   <si>
     <t>CKA Mock1 &amp; Mock2</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +373,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +414,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,13 +590,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -638,14 +654,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -665,6 +675,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,6 +691,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,21 +720,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,230 +1121,230 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="6">
         <v>0.2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="28">
         <v>0.2</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="28">
         <v>0.15</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="28">
         <v>0.25</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="28">
         <v>0.2</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1362,11 +1380,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A28"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="C7:C10"/>
@@ -1377,6 +1390,11 @@
     <mergeCell ref="D17:D24"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1387,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G574"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,38 +1419,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
@@ -1445,14 +1463,14 @@
       <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>35</v>
+      <c r="B4" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="4">
         <v>44537</v>
@@ -1468,8 +1486,8 @@
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
+      <c r="B5" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <v>44537</v>
@@ -1485,8 +1503,8 @@
       <c r="A6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>26</v>
+      <c r="B6" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="C6" s="4">
         <v>44538</v>
@@ -1502,8 +1520,8 @@
       <c r="A7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>26</v>
+      <c r="B7" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <v>44538</v>
@@ -1519,8 +1537,8 @@
       <c r="A8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>26</v>
+      <c r="B8" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <v>44539</v>
@@ -1536,8 +1554,8 @@
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>26</v>
+      <c r="B9" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>44540</v>
@@ -1699,15 +1717,15 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
